--- a/Exercises-for-IF-Function.xlsx
+++ b/Exercises-for-IF-Function.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadiv\OneDrive\Documents\PG program in Data Science Machine Learning and Neural Network\Data Science Foundation Preparatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadiv\OneDrive\Documents\PG Program in Data Science Machine Learning Neural Networks\1. Data Science Foundation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB9DCC-4825-4DB5-B55F-6DED566A0873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F2546B-8BC4-455C-AE9E-B875AD5561B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prob-1" sheetId="8" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="135">
   <si>
     <t>Order ID</t>
   </si>
@@ -613,20 +613,27 @@
   <si>
     <t>Exercise 06</t>
   </si>
+  <si>
+    <t>Total Price(Added Tax)</t>
+  </si>
+  <si>
+    <t>Total Sales Value with commission</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yy\ h:mm\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.000"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="173" formatCode="[$$-409]#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +699,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -808,11 +822,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -858,9 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -897,10 +909,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1197,7 +1215,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,19 +1289,19 @@
         <f t="shared" ref="F3:F24" si="0">IF(E3&gt;5, "Including Tax","Excluding Tax")</f>
         <v>Excluding Tax</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -1305,19 +1323,19 @@
         <f t="shared" si="0"/>
         <v>Including Tax</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
     </row>
@@ -1757,7 +1775,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,7 +1786,8 @@
     <col min="4" max="4" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="15"/>
+    <col min="7" max="7" width="24.44140625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.3">
@@ -1790,6 +1809,9 @@
       <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1808,6 +1830,10 @@
         <v>6.99</v>
       </c>
       <c r="F2" s="8">
+        <f>IF(E2&gt;5,PRODUCT(E2,0.1),E2)</f>
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="G2" s="29">
         <f>IF(E2&gt;5, SUM(PRODUCT(E2,0.1),E2),E2)</f>
         <v>7.6890000000000001</v>
       </c>
@@ -1829,21 +1855,25 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F24" si="0">IF(E3&gt;5, SUM(PRODUCT(E3,0.1),E3),E3)</f>
+        <f t="shared" ref="F3:F24" si="0">IF(E3&gt;5,PRODUCT(E3,0.1),E3)</f>
         <v>2.5</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="G3" s="29">
+        <f t="shared" ref="G3:G24" si="1">IF(E3&gt;5, SUM(PRODUCT(E3,0.1),E3),E3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1863,20 +1893,24 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" si="0"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" si="1"/>
         <v>9.8889999999999993</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1896,18 +1930,22 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
+        <v>1.2990000000000002</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" si="1"/>
         <v>14.289</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1927,6 +1965,10 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="1"/>
         <v>6.5890000000000004</v>
       </c>
     </row>
@@ -1948,6 +1990,10 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" si="1"/>
         <v>6.5890000000000004</v>
       </c>
     </row>
@@ -1969,6 +2015,10 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="G8" s="29">
+        <f t="shared" si="1"/>
         <v>6.5890000000000004</v>
       </c>
     </row>
@@ -1990,6 +2040,10 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="G9" s="29">
+        <f t="shared" si="1"/>
         <v>6.5890000000000004</v>
       </c>
     </row>
@@ -2011,6 +2065,10 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" si="1"/>
         <v>6.5890000000000004</v>
       </c>
     </row>
@@ -2032,6 +2090,10 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" si="1"/>
         <v>8.7889999999999997</v>
       </c>
     </row>
@@ -2055,6 +2117,10 @@
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
+      <c r="G12" s="29">
+        <f t="shared" si="1"/>
+        <v>2.99</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2074,6 +2140,10 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
+        <v>1.2990000000000002</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="1"/>
         <v>14.289</v>
       </c>
     </row>
@@ -2097,6 +2167,10 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
+      <c r="G14" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -2118,6 +2192,10 @@
         <f t="shared" si="0"/>
         <v>4.99</v>
       </c>
+      <c r="G15" s="29">
+        <f t="shared" si="1"/>
+        <v>4.99</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -2137,10 +2215,14 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="1"/>
         <v>6.5890000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -2158,10 +2240,14 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" si="0"/>
+        <v>1.2990000000000002</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="1"/>
         <v>14.289</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -2179,10 +2265,14 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="1"/>
         <v>10.989000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -2200,10 +2290,14 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="1"/>
         <v>10.989000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -2223,8 +2317,12 @@
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G20" s="29">
+        <f t="shared" si="1"/>
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2244,8 +2342,12 @@
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2263,10 +2365,14 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
         <v>8.7889999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -2284,10 +2390,14 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
+        <v>0.59900000000000009</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
         <v>6.5890000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2305,6 +2415,10 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="0"/>
+        <v>2.99</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
         <v>2.99</v>
       </c>
     </row>
@@ -2323,7 +2437,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2524,20 +2638,20 @@
         <f t="shared" si="0"/>
         <v>Small Pizzaa</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -2559,18 +2673,18 @@
         <f t="shared" si="0"/>
         <v>Small Pizzaa</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2891,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A68573-D74F-4C50-954C-4653B39620AF}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -3010,21 +3124,21 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3046,19 +3160,19 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3080,19 +3194,19 @@
         <f t="shared" si="0"/>
         <v>Good</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -3114,19 +3228,19 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -3148,19 +3262,19 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -3233,7 +3347,7 @@
         <f t="shared" si="0"/>
         <v>Outstanding</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="23" t="s">
         <v>60</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -3263,7 +3377,7 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="5" t="s">
         <v>76</v>
       </c>
@@ -3291,7 +3405,7 @@
         <f t="shared" si="0"/>
         <v>Outstanding</v>
       </c>
-      <c r="K14" s="26"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="5" t="s">
         <v>78</v>
       </c>
@@ -3319,7 +3433,7 @@
         <f t="shared" si="0"/>
         <v>Good</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>66</v>
       </c>
       <c r="L15" s="5" t="s">
@@ -3349,7 +3463,7 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="K16" s="25"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="5" t="s">
         <v>83</v>
       </c>
@@ -3377,7 +3491,7 @@
         <f t="shared" si="0"/>
         <v>Good</v>
       </c>
-      <c r="K17" s="26"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="5" t="s">
         <v>85</v>
       </c>
@@ -3405,7 +3519,7 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="23" t="s">
         <v>63</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -3435,7 +3549,7 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="K19" s="25"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="5" t="s">
         <v>89</v>
       </c>
@@ -3463,7 +3577,7 @@
         <f t="shared" si="0"/>
         <v>Bad</v>
       </c>
-      <c r="K20" s="26"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="5" t="s">
         <v>91</v>
       </c>
@@ -3509,7 +3623,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3519,6 +3633,7 @@
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -3542,6 +3657,9 @@
       <c r="F1" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
@@ -3559,7 +3677,11 @@
       <c r="E2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="31">
+        <f>IF(D2&lt;600000,0%,IF(AND(D2&gt;=600000,D2&lt;=750000),3%,IF(AND(D2&gt;=750001,D2&lt;=900000),5%,IF(D2&gt;900000,7%))))</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G2" s="30">
         <f>IF(D2&lt;600000,SUM(PRODUCT(D2,0),D2),IF(AND(D2&gt;=600000,D2&lt;=750000),SUM(PRODUCT(D2,0.3),D2),IF(AND(D2&gt;=750001,D2&lt;=900000),SUM(PRODUCT(D2,0.5),D2),IF(D2&gt;900000,SUM(PRODUCT(D2,0.7),D2)))))</f>
         <v>1779390</v>
       </c>
@@ -3580,8 +3702,12 @@
       <c r="E3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="17">
-        <f t="shared" ref="F3:F21" si="0">IF(D3&lt;600000,SUM(PRODUCT(D3,0),D3),IF(AND(D3&gt;=600000,D3&lt;=750000),SUM(PRODUCT(D3,0.3),D3),IF(AND(D3&gt;=750001,D3&lt;=900000),SUM(PRODUCT(D3,0.5),D3),IF(D3&gt;900000,SUM(PRODUCT(D3,0.7),D3)))))</f>
+      <c r="F3" s="31">
+        <f t="shared" ref="F3:F21" si="0">IF(D3&lt;600000,0%,IF(AND(D3&gt;=600000,D3&lt;=750000),3%,IF(AND(D3&gt;=750001,D3&lt;=900000),5%,IF(D3&gt;900000,7%))))</f>
+        <v>0.03</v>
+      </c>
+      <c r="G3" s="30">
+        <f t="shared" ref="G3:G21" si="1">IF(D3&lt;600000,SUM(PRODUCT(D3,0),D3),IF(AND(D3&gt;=600000,D3&lt;=750000),SUM(PRODUCT(D3,0.3),D3),IF(AND(D3&gt;=750001,D3&lt;=900000),SUM(PRODUCT(D3,0.5),D3),IF(D3&gt;900000,SUM(PRODUCT(D3,0.7),D3)))))</f>
         <v>884007.8</v>
       </c>
     </row>
@@ -3601,8 +3727,12 @@
       <c r="E4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="17">
-        <f t="shared" si="0"/>
+      <c r="F4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" si="1"/>
         <v>945581</v>
       </c>
     </row>
@@ -3622,8 +3752,12 @@
       <c r="E5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="17">
-        <f t="shared" si="0"/>
+      <c r="F5" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="1"/>
         <v>500543</v>
       </c>
     </row>
@@ -3643,8 +3777,12 @@
       <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="17">
-        <f t="shared" si="0"/>
+      <c r="F6" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="1"/>
         <v>1707405.2</v>
       </c>
     </row>
@@ -3664,22 +3802,26 @@
       <c r="E7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="17">
-        <f t="shared" si="0"/>
+      <c r="F7" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="1"/>
         <v>1985628.9</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -3697,20 +3839,24 @@
       <c r="E8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="17">
-        <f t="shared" si="0"/>
+      <c r="F8" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="1"/>
         <v>545785</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -3728,20 +3874,24 @@
       <c r="E9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="17">
-        <f t="shared" si="0"/>
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="1"/>
         <v>1133112</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -3759,20 +3909,24 @@
       <c r="E10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="17">
-        <f t="shared" si="0"/>
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" si="1"/>
         <v>1870481.1</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -3790,8 +3944,12 @@
       <c r="E11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="17">
-        <f t="shared" si="0"/>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="1"/>
         <v>1925838.2</v>
       </c>
     </row>
@@ -3811,8 +3969,12 @@
       <c r="E12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="17">
-        <f t="shared" si="0"/>
+      <c r="F12" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="1"/>
         <v>1872050.2</v>
       </c>
     </row>
@@ -3832,8 +3994,12 @@
       <c r="E13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="17">
-        <f t="shared" si="0"/>
+      <c r="F13" s="31">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="1"/>
         <v>1323396</v>
       </c>
       <c r="L13" s="10" t="s">
@@ -3859,8 +4025,12 @@
       <c r="E14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="17">
-        <f t="shared" si="0"/>
+      <c r="F14" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="1"/>
         <v>1800818.5</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -3886,8 +4056,12 @@
       <c r="E15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="17">
-        <f t="shared" si="0"/>
+      <c r="F15" s="31">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="1"/>
         <v>1262530.5</v>
       </c>
       <c r="L15" s="5" t="s">
@@ -3913,8 +4087,12 @@
       <c r="E16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="17">
-        <f t="shared" si="0"/>
+      <c r="F16" s="31">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="30">
+        <f t="shared" si="1"/>
         <v>824453.5</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -3940,8 +4118,12 @@
       <c r="E17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="17">
-        <f t="shared" si="0"/>
+      <c r="F17" s="31">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="G17" s="30">
+        <f t="shared" si="1"/>
         <v>814112</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -3967,8 +4149,12 @@
       <c r="E18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="17">
-        <f t="shared" si="0"/>
+      <c r="F18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <f t="shared" si="1"/>
         <v>531543</v>
       </c>
     </row>
@@ -3988,8 +4174,12 @@
       <c r="E19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="17">
-        <f t="shared" si="0"/>
+      <c r="F19" s="31">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="1"/>
         <v>1333143</v>
       </c>
     </row>
@@ -4009,8 +4199,12 @@
       <c r="E20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="17">
-        <f t="shared" si="0"/>
+      <c r="F20" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20" s="30">
+        <f t="shared" si="1"/>
         <v>1933297.7999999998</v>
       </c>
     </row>
@@ -4030,8 +4224,12 @@
       <c r="E21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="17">
-        <f t="shared" si="0"/>
+      <c r="F21" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21" s="30">
+        <f t="shared" si="1"/>
         <v>1767559.7</v>
       </c>
     </row>
@@ -4048,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9E6BD-7633-425C-A3A3-31BDB4553093}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4230,20 +4428,20 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
     </row>
     <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -4265,18 +4463,18 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
     </row>
     <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -4298,18 +4496,18 @@
         <f t="shared" si="0"/>
         <v>A-</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
     </row>
     <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -4331,18 +4529,18 @@
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -4623,11 +4821,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4642,7 +4840,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -4653,7 +4851,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
@@ -4662,7 +4860,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>78</v>
       </c>
@@ -4671,7 +4869,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -4682,7 +4880,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>83</v>
       </c>
@@ -4691,7 +4889,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
@@ -4700,7 +4898,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -4711,7 +4909,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>89</v>
       </c>
@@ -4720,7 +4918,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5" t="s">
         <v>91</v>
       </c>
@@ -4729,10 +4927,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="2:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4776,10 +4974,10 @@
       </c>
     </row>
     <row r="23" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="2:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
